--- a/content/Book Three 25-33.xlsx
+++ b/content/Book Three 25-33.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vani-www\asha-bhaagvatam\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{613071DE-7E43-477A-9B82-CCE62C8A6DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194255FC-3A4F-477D-8CB3-48285B36E53E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="676" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="676" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3-25" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,15 @@
     <sheet name="Sheet3-32" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet3-33" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sheet3-31'!$A$1:$E$401</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8210" uniqueCount="4965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8212" uniqueCount="4966">
   <si>
     <t>श्रीमद्भागवतमहापुराणम्</t>
   </si>
@@ -14943,11 +14938,14 @@
   <si>
     <t>3-PS</t>
   </si>
+  <si>
+    <t>Laid on a soiled bed, infested with sweat borne creatures, he is unable to scratch himself, or to make an effort to arise from that place.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -15409,7 +15407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E355"/>
   <sheetViews>
@@ -21097,7 +21095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F550"/>
   <sheetViews>
@@ -29805,7 +29803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E223"/>
   <sheetViews>
@@ -33399,7 +33397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E390"/>
   <sheetViews>
@@ -39711,7 +39709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F344"/>
   <sheetViews>
@@ -45243,7 +45241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E259"/>
   <sheetViews>
@@ -49395,12 +49393,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53210,18 +53208,18 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="B236" s="1">
         <v>26</v>
       </c>
       <c r="C236" s="1">
-        <v>5</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1609</v>
+        <v>0</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>4965</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -53229,30 +53227,27 @@
         <v>4960</v>
       </c>
       <c r="B237" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C237" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B238" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C238" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -53260,16 +53255,16 @@
         <v>4959</v>
       </c>
       <c r="B239" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C239" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -53277,16 +53272,16 @@
         <v>4959</v>
       </c>
       <c r="B240" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C240" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -53294,16 +53289,16 @@
         <v>4959</v>
       </c>
       <c r="B241" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C241" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>4238</v>
+        <v>1614</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>4239</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -53311,44 +53306,47 @@
         <v>4959</v>
       </c>
       <c r="B242" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C242" s="1">
+        <v>4</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B243" s="1">
+        <v>27</v>
+      </c>
+      <c r="C243" s="1">
         <v>5</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B243" s="1">
-        <v>26</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B244" s="1">
         <v>27</v>
       </c>
       <c r="C244" s="1">
-        <v>1</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>1620</v>
+        <v>0</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>4240</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -53356,30 +53354,27 @@
         <v>4960</v>
       </c>
       <c r="B245" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C245" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B246" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C246" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>4241</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>4242</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -53387,16 +53382,16 @@
         <v>4959</v>
       </c>
       <c r="B247" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C247" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1622</v>
+        <v>4241</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1625</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -53404,16 +53399,16 @@
         <v>4959</v>
       </c>
       <c r="B248" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C248" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -53421,16 +53416,16 @@
         <v>4959</v>
       </c>
       <c r="B249" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C249" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>4243</v>
+        <v>1623</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>4244</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -53438,44 +53433,47 @@
         <v>4959</v>
       </c>
       <c r="B250" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C250" s="1">
+        <v>4</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B251" s="1">
+        <v>28</v>
+      </c>
+      <c r="C251" s="1">
         <v>5</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="E250" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B251" s="1">
-        <v>27</v>
-      </c>
-      <c r="C251" s="1">
-        <v>0</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B252" s="1">
         <v>28</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>1628</v>
+        <v>0</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>4245</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -53483,30 +53481,27 @@
         <v>4960</v>
       </c>
       <c r="B253" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C253" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B254" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C254" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -53514,16 +53509,16 @@
         <v>4959</v>
       </c>
       <c r="B255" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C255" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>4246</v>
+        <v>1630</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>4247</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -53531,16 +53526,16 @@
         <v>4959</v>
       </c>
       <c r="B256" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C256" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>4399</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -53548,16 +53543,16 @@
         <v>4959</v>
       </c>
       <c r="B257" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C257" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1631</v>
+        <v>4248</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -53565,44 +53560,47 @@
         <v>4959</v>
       </c>
       <c r="B258" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C258" s="1">
+        <v>4</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B259" s="1">
+        <v>29</v>
+      </c>
+      <c r="C259" s="1">
         <v>5</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B259" s="1">
-        <v>28</v>
-      </c>
-      <c r="C259" s="1">
-        <v>0</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B260" s="1">
         <v>29</v>
       </c>
       <c r="C260" s="1">
-        <v>1</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>1636</v>
+        <v>0</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>4249</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -53610,30 +53608,27 @@
         <v>4960</v>
       </c>
       <c r="B261" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C261" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B262" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C262" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>4250</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>4254</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -53641,16 +53636,16 @@
         <v>4959</v>
       </c>
       <c r="B263" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C263" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -53658,16 +53653,16 @@
         <v>4959</v>
       </c>
       <c r="B264" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C264" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -53675,44 +53670,47 @@
         <v>4959</v>
       </c>
       <c r="B265" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C265" s="1">
+        <v>3</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B266" s="1">
+        <v>30</v>
+      </c>
+      <c r="C266" s="1">
         <v>4</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>4253</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>4257</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B266" s="1">
-        <v>29</v>
-      </c>
-      <c r="C266" s="1">
-        <v>0</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B267" s="1">
         <v>30</v>
       </c>
       <c r="C267" s="1">
-        <v>1</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>1637</v>
+        <v>0</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>4258</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -53720,30 +53718,27 @@
         <v>4960</v>
       </c>
       <c r="B268" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C268" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B269" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C269" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>4259</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>4262</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -53751,16 +53746,16 @@
         <v>4959</v>
       </c>
       <c r="B270" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C270" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -53768,16 +53763,16 @@
         <v>4959</v>
       </c>
       <c r="B271" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C271" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -53785,44 +53780,47 @@
         <v>4959</v>
       </c>
       <c r="B272" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C272" s="1">
+        <v>3</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B273" s="1">
+        <v>31</v>
+      </c>
+      <c r="C273" s="1">
         <v>4</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>4265</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B273" s="1">
-        <v>30</v>
-      </c>
-      <c r="C273" s="1">
-        <v>0</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B274" s="1">
         <v>31</v>
       </c>
       <c r="C274" s="1">
-        <v>1</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>1640</v>
+        <v>0</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>4266</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -53830,30 +53828,27 @@
         <v>4960</v>
       </c>
       <c r="B275" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C275" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B276" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C276" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>4267</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>4401</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -53861,16 +53856,16 @@
         <v>4959</v>
       </c>
       <c r="B277" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C277" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -53878,16 +53873,16 @@
         <v>4959</v>
       </c>
       <c r="B278" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C278" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>4271</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -53895,44 +53890,47 @@
         <v>4959</v>
       </c>
       <c r="B279" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C279" s="1">
+        <v>3</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B280" s="1">
+        <v>32</v>
+      </c>
+      <c r="C280" s="1">
         <v>4</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>4270</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>4272</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+    <row r="281" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B280" s="1">
-        <v>31</v>
-      </c>
-      <c r="C280" s="1">
-        <v>0</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B281" s="1">
         <v>32</v>
       </c>
       <c r="C281" s="1">
-        <v>1</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>1642</v>
+        <v>0</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>4273</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -53940,30 +53938,27 @@
         <v>4960</v>
       </c>
       <c r="B282" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C282" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B283" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C283" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>4274</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>4279</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -53971,16 +53966,16 @@
         <v>4959</v>
       </c>
       <c r="B284" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C284" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -53988,16 +53983,16 @@
         <v>4959</v>
       </c>
       <c r="B285" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C285" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1644</v>
+        <v>4275</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1645</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -54005,16 +54000,16 @@
         <v>4959</v>
       </c>
       <c r="B286" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C286" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>4276</v>
+        <v>1644</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>4281</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -54022,16 +54017,16 @@
         <v>4959</v>
       </c>
       <c r="B287" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C287" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -54039,44 +54034,47 @@
         <v>4959</v>
       </c>
       <c r="B288" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C288" s="1">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B289" s="1">
+        <v>33</v>
+      </c>
+      <c r="C289" s="1">
         <v>6</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>4278</v>
       </c>
-      <c r="E288" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+    <row r="290" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B289" s="1">
-        <v>32</v>
-      </c>
-      <c r="C289" s="1">
-        <v>0</v>
-      </c>
-      <c r="D289" s="8" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B290" s="1">
         <v>33</v>
       </c>
       <c r="C290" s="1">
-        <v>1</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>1647</v>
+        <v>0</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>4283</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -54084,30 +54082,27 @@
         <v>4960</v>
       </c>
       <c r="B291" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C291" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B292" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C292" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>4284</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>4287</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -54115,16 +54110,16 @@
         <v>4959</v>
       </c>
       <c r="B293" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C293" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -54132,16 +54127,16 @@
         <v>4959</v>
       </c>
       <c r="B294" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C294" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -54149,44 +54144,47 @@
         <v>4959</v>
       </c>
       <c r="B295" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C295" s="1">
+        <v>3</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B296" s="1">
+        <v>34</v>
+      </c>
+      <c r="C296" s="1">
         <v>4</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
+    <row r="297" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B296" s="1">
-        <v>33</v>
-      </c>
-      <c r="C296" s="1">
-        <v>0</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B297" s="1">
         <v>34</v>
       </c>
       <c r="C297" s="1">
-        <v>1</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1650</v>
+        <v>0</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>4290</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -54194,30 +54192,27 @@
         <v>4960</v>
       </c>
       <c r="B298" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C298" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B299" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C299" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>4291</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>4293</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -54225,16 +54220,16 @@
         <v>4959</v>
       </c>
       <c r="B300" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C300" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -54242,16 +54237,16 @@
         <v>4959</v>
       </c>
       <c r="B301" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C301" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>4295</v>
+        <v>4292</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -54259,44 +54254,47 @@
         <v>4959</v>
       </c>
       <c r="B302" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C302" s="1">
+        <v>3</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B303" s="1">
+        <v>35</v>
+      </c>
+      <c r="C303" s="1">
         <v>4</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>4297</v>
       </c>
-      <c r="E302" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>4298</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
+    <row r="304" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B303" s="1">
-        <v>34</v>
-      </c>
-      <c r="C303" s="1">
-        <v>0</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B304" s="1">
         <v>35</v>
       </c>
       <c r="C304" s="1">
-        <v>1</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>1652</v>
+        <v>0</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>4299</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -54304,30 +54302,27 @@
         <v>4960</v>
       </c>
       <c r="B305" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C305" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B306" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C306" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>4300</v>
-      </c>
-      <c r="E306" s="1" t="s">
-        <v>4304</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -54335,16 +54330,16 @@
         <v>4959</v>
       </c>
       <c r="B307" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C307" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -54352,16 +54347,16 @@
         <v>4959</v>
       </c>
       <c r="B308" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C308" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -54369,44 +54364,47 @@
         <v>4959</v>
       </c>
       <c r="B309" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C309" s="1">
+        <v>3</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B310" s="1">
+        <v>36</v>
+      </c>
+      <c r="C310" s="1">
         <v>4</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>4303</v>
       </c>
-      <c r="E309" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>4307</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B310" s="1">
-        <v>35</v>
-      </c>
-      <c r="C310" s="1">
-        <v>0</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B311" s="1">
         <v>36</v>
       </c>
       <c r="C311" s="1">
-        <v>1</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1654</v>
+        <v>0</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>4308</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -54414,30 +54412,27 @@
         <v>4960</v>
       </c>
       <c r="B312" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C312" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B313" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>4309</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>4404</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -54445,16 +54440,16 @@
         <v>4959</v>
       </c>
       <c r="B314" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C314" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>4313</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -54462,16 +54457,16 @@
         <v>4959</v>
       </c>
       <c r="B315" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C315" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -54479,44 +54474,47 @@
         <v>4959</v>
       </c>
       <c r="B316" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C316" s="1">
+        <v>3</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B317" s="1">
+        <v>37</v>
+      </c>
+      <c r="C317" s="1">
         <v>4</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>4312</v>
       </c>
-      <c r="E316" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>4315</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
+    <row r="318" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B317" s="1">
-        <v>36</v>
-      </c>
-      <c r="C317" s="1">
-        <v>0</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B318" s="1">
         <v>37</v>
       </c>
       <c r="C318" s="1">
-        <v>1</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>1656</v>
+        <v>0</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>4316</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -54524,30 +54522,27 @@
         <v>4960</v>
       </c>
       <c r="B319" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C319" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B320" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C320" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -54555,16 +54550,16 @@
         <v>4959</v>
       </c>
       <c r="B321" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C321" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -54572,16 +54567,16 @@
         <v>4959</v>
       </c>
       <c r="B322" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C322" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -54589,16 +54584,16 @@
         <v>4959</v>
       </c>
       <c r="B323" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C323" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>4317</v>
+        <v>1660</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>4318</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -54606,44 +54601,47 @@
         <v>4959</v>
       </c>
       <c r="B324" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C324" s="1">
+        <v>4</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B325" s="1">
+        <v>38</v>
+      </c>
+      <c r="C325" s="1">
         <v>5</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>4319</v>
       </c>
-      <c r="E324" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>4320</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
+    <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B325" s="1">
-        <v>37</v>
-      </c>
-      <c r="C325" s="1">
-        <v>0</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B326" s="1">
         <v>38</v>
       </c>
       <c r="C326" s="1">
-        <v>1</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1664</v>
+        <v>0</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>4321</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -54651,30 +54649,27 @@
         <v>4960</v>
       </c>
       <c r="B327" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C327" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B328" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C328" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>4322</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>4324</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -54682,16 +54677,16 @@
         <v>4959</v>
       </c>
       <c r="B329" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C329" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -54699,16 +54694,16 @@
         <v>4959</v>
       </c>
       <c r="B330" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C330" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1666</v>
+        <v>4323</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1667</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -54716,16 +54711,16 @@
         <v>4959</v>
       </c>
       <c r="B331" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C331" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>4326</v>
+        <v>1666</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>4405</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -54733,44 +54728,47 @@
         <v>4959</v>
       </c>
       <c r="B332" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C332" s="1">
+        <v>4</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B333" s="1">
+        <v>39</v>
+      </c>
+      <c r="C333" s="1">
         <v>5</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>4327</v>
       </c>
-      <c r="E332" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>4328</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
+    <row r="334" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B333" s="1">
-        <v>38</v>
-      </c>
-      <c r="C333" s="1">
-        <v>0</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B334" s="1">
         <v>39</v>
       </c>
       <c r="C334" s="1">
-        <v>1</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1668</v>
+        <v>0</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>4329</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -54778,30 +54776,27 @@
         <v>4960</v>
       </c>
       <c r="B335" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C335" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B336" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C336" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>4330</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>4331</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -54809,16 +54804,16 @@
         <v>4959</v>
       </c>
       <c r="B337" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C337" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1670</v>
+        <v>4330</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1672</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -54826,16 +54821,16 @@
         <v>4959</v>
       </c>
       <c r="B338" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C338" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>4332</v>
+        <v>1670</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>4414</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -54843,44 +54838,47 @@
         <v>4959</v>
       </c>
       <c r="B339" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C339" s="1">
+        <v>3</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B340" s="1">
+        <v>40</v>
+      </c>
+      <c r="C340" s="1">
         <v>4</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="E339" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>4333</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
+    <row r="341" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B340" s="1">
-        <v>39</v>
-      </c>
-      <c r="C340" s="1">
-        <v>0</v>
-      </c>
-      <c r="D340" s="8" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B341" s="1">
         <v>40</v>
       </c>
       <c r="C341" s="1">
-        <v>1</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1674</v>
+        <v>0</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>4334</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -54888,30 +54886,27 @@
         <v>4960</v>
       </c>
       <c r="B342" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C342" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B343" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C343" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>4335</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>4406</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -54919,16 +54914,16 @@
         <v>4959</v>
       </c>
       <c r="B344" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C344" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1675</v>
+        <v>4335</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1677</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -54936,16 +54931,16 @@
         <v>4959</v>
       </c>
       <c r="B345" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C345" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -54953,16 +54948,16 @@
         <v>4959</v>
       </c>
       <c r="B346" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C346" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>4336</v>
+        <v>1676</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>4407</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -54970,44 +54965,47 @@
         <v>4959</v>
       </c>
       <c r="B347" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C347" s="1">
+        <v>4</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B348" s="1">
+        <v>41</v>
+      </c>
+      <c r="C348" s="1">
         <v>5</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>4337</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="E348" s="1" t="s">
         <v>4338</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
+    <row r="349" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B348" s="1">
-        <v>40</v>
-      </c>
-      <c r="C348" s="1">
-        <v>0</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B349" s="1">
         <v>41</v>
       </c>
       <c r="C349" s="1">
-        <v>1</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1679</v>
+        <v>0</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>4339</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -55015,30 +55013,27 @@
         <v>4960</v>
       </c>
       <c r="B350" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C350" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B351" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C351" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>4340</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>4343</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -55046,16 +55041,16 @@
         <v>4959</v>
       </c>
       <c r="B352" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C352" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -55063,16 +55058,16 @@
         <v>4959</v>
       </c>
       <c r="B353" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C353" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -55080,44 +55075,47 @@
         <v>4959</v>
       </c>
       <c r="B354" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B355" s="1">
+        <v>42</v>
+      </c>
+      <c r="C355" s="1">
         <v>4</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1681</v>
       </c>
-      <c r="E354" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
+    <row r="356" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B355" s="1">
-        <v>41</v>
-      </c>
-      <c r="C355" s="1">
-        <v>0</v>
-      </c>
-      <c r="D355" s="8" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B356" s="1">
         <v>42</v>
       </c>
       <c r="C356" s="1">
-        <v>1</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1683</v>
+        <v>0</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>4346</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -55125,30 +55123,27 @@
         <v>4960</v>
       </c>
       <c r="B357" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C357" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B358" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C358" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>4408</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -55156,16 +55151,16 @@
         <v>4959</v>
       </c>
       <c r="B359" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C359" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1689</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -55173,16 +55168,16 @@
         <v>4959</v>
       </c>
       <c r="B360" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C360" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -55190,16 +55185,16 @@
         <v>4959</v>
       </c>
       <c r="B361" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C361" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>4347</v>
+        <v>1687</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>4349</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -55207,44 +55202,47 @@
         <v>4959</v>
       </c>
       <c r="B362" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C362" s="1">
+        <v>4</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B363" s="1">
+        <v>43</v>
+      </c>
+      <c r="C363" s="1">
         <v>5</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>4348</v>
       </c>
-      <c r="E362" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
+    <row r="364" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B363" s="1">
-        <v>42</v>
-      </c>
-      <c r="C363" s="1">
-        <v>0</v>
-      </c>
-      <c r="D363" s="8" t="s">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B364" s="1">
         <v>43</v>
       </c>
       <c r="C364" s="1">
-        <v>1</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1690</v>
+        <v>0</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>4350</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -55252,30 +55250,27 @@
         <v>4960</v>
       </c>
       <c r="B365" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C365" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B366" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C366" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>4351</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>4410</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -55283,16 +55278,16 @@
         <v>4959</v>
       </c>
       <c r="B367" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C367" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1692</v>
+        <v>4351</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1693</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -55300,16 +55295,16 @@
         <v>4959</v>
       </c>
       <c r="B368" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C368" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>4352</v>
+        <v>1692</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>4353</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -55317,44 +55312,47 @@
         <v>4959</v>
       </c>
       <c r="B369" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C369" s="1">
+        <v>3</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44</v>
+      </c>
+      <c r="C370" s="1">
         <v>4</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>4354</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>4355</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="1" t="s">
+    <row r="371" spans="1:5" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B370" s="1">
-        <v>43</v>
-      </c>
-      <c r="C370" s="1">
-        <v>0</v>
-      </c>
-      <c r="D370" s="8" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B371" s="1">
         <v>44</v>
       </c>
       <c r="C371" s="1">
-        <v>1</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1694</v>
+        <v>0</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>4356</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -55362,30 +55360,27 @@
         <v>4960</v>
       </c>
       <c r="B372" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C372" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B373" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C373" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>4357</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>4360</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -55393,16 +55388,16 @@
         <v>4959</v>
       </c>
       <c r="B374" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C374" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -55410,16 +55405,16 @@
         <v>4959</v>
       </c>
       <c r="B375" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C375" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -55427,44 +55422,47 @@
         <v>4959</v>
       </c>
       <c r="B376" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C376" s="1">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45</v>
+      </c>
+      <c r="C377" s="1">
         <v>4</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="E376" s="1" t="s">
+      <c r="E377" s="1" t="s">
         <v>4411</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="1" t="s">
+    <row r="378" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B377" s="1">
-        <v>44</v>
-      </c>
-      <c r="C377" s="1">
-        <v>0</v>
-      </c>
-      <c r="D377" s="8" t="s">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B378" s="1">
         <v>45</v>
       </c>
       <c r="C378" s="1">
-        <v>1</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1697</v>
+        <v>0</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>4363</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -55472,30 +55470,27 @@
         <v>4960</v>
       </c>
       <c r="B379" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C379" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B380" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C380" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>4364</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>4412</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -55503,16 +55498,16 @@
         <v>4959</v>
       </c>
       <c r="B381" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C381" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1699</v>
+        <v>4364</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1700</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -55520,16 +55515,16 @@
         <v>4959</v>
       </c>
       <c r="B382" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C382" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>4365</v>
+        <v>1699</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>4413</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -55537,44 +55532,47 @@
         <v>4959</v>
       </c>
       <c r="B383" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C383" s="1">
+        <v>3</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B384" s="1">
+        <v>46</v>
+      </c>
+      <c r="C384" s="1">
         <v>4</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D384" s="1" t="s">
         <v>4366</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E384" s="1" t="s">
         <v>4367</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A384" s="1" t="s">
+    <row r="385" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B384" s="1">
-        <v>45</v>
-      </c>
-      <c r="C384" s="1">
-        <v>0</v>
-      </c>
-      <c r="D384" s="8" t="s">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B385" s="1">
         <v>46</v>
       </c>
       <c r="C385" s="1">
-        <v>1</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1702</v>
+        <v>0</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>4368</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -55582,30 +55580,27 @@
         <v>4960</v>
       </c>
       <c r="B386" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C386" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B387" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C387" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>4369</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>4373</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -55613,16 +55608,16 @@
         <v>4959</v>
       </c>
       <c r="B388" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C388" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -55630,16 +55625,16 @@
         <v>4959</v>
       </c>
       <c r="B389" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C389" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -55647,44 +55642,47 @@
         <v>4959</v>
       </c>
       <c r="B390" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C390" s="1">
+        <v>3</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B391" s="1">
+        <v>47</v>
+      </c>
+      <c r="C391" s="1">
         <v>4</v>
       </c>
-      <c r="D390" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>4372</v>
       </c>
-      <c r="E390" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>4376</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A391" s="1" t="s">
+    <row r="392" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
         <v>4961</v>
-      </c>
-      <c r="B391" s="1">
-        <v>46</v>
-      </c>
-      <c r="C391" s="1">
-        <v>0</v>
-      </c>
-      <c r="D391" s="8" t="s">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="1" t="s">
-        <v>4960</v>
       </c>
       <c r="B392" s="1">
         <v>47</v>
       </c>
       <c r="C392" s="1">
-        <v>1</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1703</v>
+        <v>0</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>4377</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -55692,30 +55690,27 @@
         <v>4960</v>
       </c>
       <c r="B393" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C393" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="B394" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C394" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>4378</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>4382</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -55723,16 +55718,16 @@
         <v>4959</v>
       </c>
       <c r="B395" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C395" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -55740,16 +55735,16 @@
         <v>4959</v>
       </c>
       <c r="B396" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C396" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -55757,61 +55752,79 @@
         <v>4959</v>
       </c>
       <c r="B397" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C397" s="1">
+        <v>3</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B398" s="1">
+        <v>48</v>
+      </c>
+      <c r="C398" s="1">
         <v>4</v>
       </c>
-      <c r="D397" s="1" t="s">
+      <c r="D398" s="1" t="s">
         <v>4381</v>
       </c>
-      <c r="E397" s="1" t="s">
+      <c r="E398" s="1" t="s">
         <v>4385</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A398" s="1" t="s">
-        <v>4961</v>
-      </c>
-      <c r="B398" s="1">
-        <v>47</v>
-      </c>
-      <c r="C398" s="1">
-        <v>0</v>
-      </c>
-      <c r="D398" s="8" t="s">
-        <v>4386</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="B399" s="1">
         <v>48</v>
       </c>
       <c r="C399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D399" s="8" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B400" s="1">
+        <v>49</v>
+      </c>
+      <c r="C400" s="1">
+        <v>1</v>
+      </c>
+      <c r="D400" s="8" t="s">
         <v>4387</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="45" x14ac:dyDescent="0.2">
-      <c r="A400" s="1" t="s">
+    <row r="401" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
         <v>4961</v>
       </c>
-      <c r="B400" s="1">
-        <v>48</v>
-      </c>
-      <c r="C400" s="1">
+      <c r="B401" s="1">
+        <v>49</v>
+      </c>
+      <c r="C401" s="1">
         <v>0</v>
       </c>
-      <c r="D400" s="8" t="s">
+      <c r="D401" s="8" t="s">
         <v>4388</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E401" xr:uid="{371603D5-8BD9-4D9E-80A2-5395C5A61513}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55820,7 +55833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F320"/>
   <sheetViews>
@@ -60932,7 +60945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F303"/>
   <sheetViews>
